--- a/UROP_RAGSOC/FCTT_22-23.xlsx
+++ b/UROP_RAGSOC/FCTT_22-23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self_Work_Python\UROP_FCTT_2022\Final_Group_Formations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB22AF-2BBA-49BE-804A-2F6C6BE2AF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B93608-B082-489F-97F8-0774C0DE368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46795F6D-6950-4569-9A88-3A2B9E2224F6}"/>
   </bookViews>
@@ -20,290 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
-  <si>
-    <t>Shabeer</t>
-  </si>
-  <si>
-    <t>reza.shabeer19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Ruppa Geethanath</t>
-  </si>
-  <si>
-    <t>shriram.ruppa-geethanath19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Zheng</t>
-  </si>
-  <si>
-    <t>jingchuan.zheng19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Chadwick</t>
-  </si>
-  <si>
-    <t>james.chadwick19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Zhang</t>
-  </si>
-  <si>
-    <t>jichuan.zhang19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Eser</t>
-  </si>
-  <si>
-    <t>feyzi.eser19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Willis</t>
-  </si>
-  <si>
-    <t>matthew.willis19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Danion</t>
-  </si>
-  <si>
-    <t>lucile.danion22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>fanyi.sun19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Hsu</t>
-  </si>
-  <si>
-    <t>ruo.hsu22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Jedrzejewski</t>
-  </si>
-  <si>
-    <t>jakub.jedrzejewski19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Galibov</t>
-  </si>
-  <si>
-    <t>noah.galibov22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>bin Mohd Fadzil</t>
-  </si>
-  <si>
-    <t>muhammad.bin-mohd-fadzil19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Janczuk</t>
-  </si>
-  <si>
-    <t>kacper.janczuk19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Pavic</t>
-  </si>
-  <si>
-    <t>alexandra.pavic19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Caskey</t>
-  </si>
-  <si>
-    <t>paddy.caskey19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Yamasaki Patrickiou</t>
-  </si>
-  <si>
-    <t>helena.yamasaki-patrickiou19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Karavasilis</t>
-  </si>
-  <si>
-    <t>zacharias.karavasilis19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Jakobsen</t>
-  </si>
-  <si>
-    <t>christian.jakobsen22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Rivieccio</t>
-  </si>
-  <si>
-    <t>francesco.rivieccio19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Tsichrintzis</t>
-  </si>
-  <si>
-    <t>konstantinos.tsichrintzis19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Antoniou</t>
-  </si>
-  <si>
-    <t>andreas.antoniou19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Poli</t>
-  </si>
-  <si>
-    <t>sarah.poli19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Alibert</t>
-  </si>
-  <si>
-    <t>alexis.alibert22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Lodge</t>
-  </si>
-  <si>
-    <t>alessio.lodge22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>chloe.parker19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Stevens</t>
-  </si>
-  <si>
-    <t>benton.stevens19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Yeung</t>
-  </si>
-  <si>
-    <t>chak.yeung22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Pal</t>
-  </si>
-  <si>
-    <t>ishaan.pal19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Yu</t>
-  </si>
-  <si>
-    <t>daven.yu19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Lu</t>
-  </si>
-  <si>
-    <t>lingjie.lu19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Menon</t>
-  </si>
-  <si>
-    <t>abhishek.menon19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Chouhan</t>
-  </si>
-  <si>
-    <t>dipesh.chouhan19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Wilkinson</t>
-  </si>
-  <si>
-    <t>kai.wilkinson19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Araujo Ovsienko</t>
-  </si>
-  <si>
-    <t>tadeo.araujo-ovsienko22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Exelby</t>
-  </si>
-  <si>
-    <t>jack.exelby22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Chen</t>
-  </si>
-  <si>
-    <t>kangan.chen19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>McArthur</t>
-  </si>
-  <si>
-    <t>jacob.mcarthur19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Schoeyer</t>
-  </si>
-  <si>
-    <t>caroline.schoeyer19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Li</t>
-  </si>
-  <si>
-    <t>zhenghao.li19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Pilling</t>
-  </si>
-  <si>
-    <t>christian.pilling19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Lopez Ticianelli</t>
-  </si>
-  <si>
-    <t>isabela.lopes19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Suliman</t>
-  </si>
-  <si>
-    <t>shihab.suliman22@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Malde</t>
-  </si>
-  <si>
-    <t>shiv.malde19@imperial.ac.uk</t>
-  </si>
-  <si>
-    <t>Angeli</t>
-  </si>
-  <si>
-    <t>eva.angeli22@imperial.ac.uk</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Names</t>
   </si>
@@ -695,7 +417,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,39 +428,41 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="A2" t="str">
+        <f ca="1">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
+        <v>Qtiwq</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">A2 &amp; "@bluffemail.com"</f>
+        <v>Qtiwq@bluffemail.com</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -763,11 +487,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A46" ca="1" si="0">CHAR(RANDBETWEEN(65, 90)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122)) &amp; CHAR(RANDBETWEEN(97, 122))</f>
+        <v>Uahyd</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B46" ca="1" si="1">A3 &amp; "@bluffemail.com"</f>
+        <v>Uahyd@bluffemail.com</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -792,11 +518,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="A4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ykjge</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ykjge@bluffemail.com</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -821,11 +549,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="A5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Nodhh</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Nodhh@bluffemail.com</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -850,11 +580,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="A6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Nsmgh</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Nsmgh@bluffemail.com</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -879,11 +611,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="A7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Nomms</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Nomms@bluffemail.com</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -908,11 +642,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="A8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pviad</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Pviad@bluffemail.com</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -937,11 +673,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
+      <c r="A9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Rrsxn</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Rrsxn@bluffemail.com</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -966,11 +704,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
+      <c r="A10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Xfusy</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Xfusy@bluffemail.com</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -995,11 +735,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
+      <c r="A11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ktqyg</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ktqyg@bluffemail.com</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1024,11 +766,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
+      <c r="A12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Xrulf</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Xrulf@bluffemail.com</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1053,11 +797,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
+      <c r="A13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Gdtus</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Gdtus@bluffemail.com</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1082,11 +828,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
+      <c r="A14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ygotz</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ygotz@bluffemail.com</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1111,11 +859,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
+      <c r="A15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ltfsb</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ltfsb@bluffemail.com</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1140,11 +890,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
+      <c r="A16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Alfqu</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Alfqu@bluffemail.com</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1169,11 +921,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
+      <c r="A17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ttvhl</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ttvhl@bluffemail.com</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -1198,11 +952,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
+      <c r="A18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Wqkcb</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Wqkcb@bluffemail.com</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1227,11 +983,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
+      <c r="A19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Varno</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Varno@bluffemail.com</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1256,11 +1014,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
+      <c r="A20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Qqdvm</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Qqdvm@bluffemail.com</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -1285,11 +1045,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
+      <c r="A21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Bsdwh</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bsdwh@bluffemail.com</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1314,11 +1076,13 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
+      <c r="A22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ptsyz</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ptsyz@bluffemail.com</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1343,11 +1107,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
+      <c r="A23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Sexlc</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Sexlc@bluffemail.com</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1372,11 +1138,13 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
+      <c r="A24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Magxu</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Magxu@bluffemail.com</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1401,11 +1169,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
+      <c r="A25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yuciv</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yuciv@bluffemail.com</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1430,11 +1200,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
+      <c r="A26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Tainl</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Tainl@bluffemail.com</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -1459,11 +1231,13 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
+      <c r="A27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Piphn</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Piphn@bluffemail.com</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1488,11 +1262,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
+      <c r="A28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Jazrp</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Jazrp@bluffemail.com</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1517,11 +1293,13 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
+      <c r="A29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vpbyf</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vpbyf@bluffemail.com</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -1546,11 +1324,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
+      <c r="A30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oaztv</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Oaztv@bluffemail.com</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1575,11 +1355,13 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
+      <c r="A31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Fpxje</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Fpxje@bluffemail.com</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1604,11 +1386,13 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
+      <c r="A32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Voftt</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Voftt@bluffemail.com</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1633,11 +1417,13 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
+      <c r="A33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Bwlvb</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bwlvb@bluffemail.com</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1662,11 +1448,13 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
+      <c r="A34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Anhnq</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Anhnq@bluffemail.com</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1691,11 +1479,13 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
+      <c r="A35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ssomn</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ssomn@bluffemail.com</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1720,11 +1510,13 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
+      <c r="A36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Bmkpb</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Bmkpb@bluffemail.com</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1749,11 +1541,13 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
+      <c r="A37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Kfdrm</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Kfdrm@bluffemail.com</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1778,11 +1572,13 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
+      <c r="A38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Lfyrs</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Lfyrs@bluffemail.com</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1807,11 +1603,13 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
+      <c r="A39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Prglk</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Prglk@bluffemail.com</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1836,11 +1634,13 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
+      <c r="A40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yustr</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yustr@bluffemail.com</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1865,11 +1665,13 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
+      <c r="A41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oyevm</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Oyevm@bluffemail.com</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1894,11 +1696,13 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
+      <c r="A42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Vntam</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Vntam@bluffemail.com</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1923,11 +1727,13 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
+      <c r="A43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Igjyi</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Igjyi@bluffemail.com</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1952,11 +1758,13 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
+      <c r="A44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Ywreg</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Ywreg@bluffemail.com</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1981,11 +1789,13 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
+      <c r="A45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Zhpqk</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Zhpqk@bluffemail.com</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -2010,11 +1820,13 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
+      <c r="A46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Hhtkb</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Hhtkb@bluffemail.com</v>
       </c>
       <c r="C46">
         <v>5</v>
